--- a/Mifos Automation Excels/Loan Product/27-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-INSTAL-FEE-FLAT-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/27-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-CASH-INSTAL-FEE-FLAT-ONTIME-Loanproduct.xlsx
@@ -185,9 +185,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>27-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ONTIME-INSTALLMENT-FEE-FLAT</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -652,10 +652,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -744,8 +744,8 @@
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>56</v>
+      <c r="B17" s="12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="12">
         <v>10000</v>
@@ -838,15 +838,15 @@
     </row>
     <row r="29" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>17</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>17</v>
@@ -949,10 +949,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
